--- a/test_profiles_Profile.xlsx
+++ b/test_profiles_Profile.xlsx
@@ -740,7 +740,7 @@
       <c r="E2" s="19" t="n"/>
       <c r="F2" s="18" t="inlineStr">
         <is>
-          <t>Segment 1</t>
+          <t>SEGMENT 1</t>
         </is>
       </c>
       <c r="G2" s="19" t="n"/>
